--- a/cfs_6_0.8.xlsx
+++ b/cfs_6_0.8.xlsx
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.611</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -573,10 +573,10 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.636</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.378</v>
+        <v>0.375</v>
       </c>
       <c r="I3" t="n">
         <v>0.5610000000000001</v>
@@ -619,7 +619,7 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.587</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.587</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -680,7 +680,7 @@
         <v>0.417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="M5" t="n">
         <v>7.583333333333333</v>
@@ -714,13 +714,13 @@
         <v>0.723</v>
       </c>
       <c r="H6" t="n">
-        <v>0.336</v>
+        <v>0.404</v>
       </c>
       <c r="I6" t="n">
         <v>0.589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.281</v>
+        <v>0.446</v>
       </c>
       <c r="K6" t="n">
         <v>0.496</v>
@@ -751,19 +751,19 @@
         <v>0.456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.577</v>
+        <v>0.552</v>
       </c>
       <c r="F7" t="n">
         <v>0.553</v>
       </c>
       <c r="G7" t="n">
-        <v>0.543</v>
+        <v>0.674</v>
       </c>
       <c r="H7" t="n">
         <v>0.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.554</v>
+        <v>0.534</v>
       </c>
       <c r="J7" t="n">
         <v>0.408</v>
@@ -803,7 +803,7 @@
         <v>0.533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.624</v>
+        <v>0.707</v>
       </c>
       <c r="H8" t="n">
         <v>0.404</v>
@@ -812,7 +812,7 @@
         <v>0.579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.344</v>
+        <v>0.431</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
@@ -837,7 +837,7 @@
         <v>0.631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.663</v>
+        <v>0.661</v>
       </c>
       <c r="D9" t="n">
         <v>0.513</v>
@@ -849,13 +849,13 @@
         <v>0.601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.615</v>
+        <v>0.744</v>
       </c>
       <c r="H9" t="n">
         <v>0.395</v>
       </c>
       <c r="I9" t="n">
-        <v>0.527</v>
+        <v>0.572</v>
       </c>
       <c r="J9" t="n">
         <v>0.367</v>
@@ -895,7 +895,7 @@
         <v>0.604</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="H10" t="n">
         <v>0.367</v>
@@ -904,13 +904,13 @@
         <v>0.544</v>
       </c>
       <c r="J10" t="n">
-        <v>0.331</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
-        <v>0.418</v>
+        <v>0.488</v>
       </c>
       <c r="L10" t="n">
-        <v>0.407</v>
+        <v>0.433</v>
       </c>
       <c r="M10" t="n">
         <v>3.73015873015873</v>
@@ -932,7 +932,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.466</v>
+        <v>0.529</v>
       </c>
       <c r="E11" t="n">
         <v>0.601</v>
@@ -941,7 +941,7 @@
         <v>0.576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.736</v>
+        <v>0.782</v>
       </c>
       <c r="H11" t="n">
         <v>0.381</v>
@@ -950,7 +950,7 @@
         <v>0.552</v>
       </c>
       <c r="J11" t="n">
-        <v>0.235</v>
+        <v>0.378</v>
       </c>
       <c r="K11" t="n">
         <v>0.505</v>
@@ -981,13 +981,13 @@
         <v>0.482</v>
       </c>
       <c r="E12" t="n">
-        <v>0.591</v>
+        <v>0.528</v>
       </c>
       <c r="F12" t="n">
-        <v>0.498</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.595</v>
+        <v>0.716</v>
       </c>
       <c r="H12" t="n">
         <v>0.376</v>
@@ -999,7 +999,7 @@
         <v>0.338</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.375</v>
       </c>
       <c r="L12" t="n">
         <v>0.438</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.604</v>
+        <v>0.671</v>
       </c>
       <c r="C13" t="n">
         <v>0.679</v>
@@ -1033,7 +1033,7 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.62</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -1067,7 +1067,7 @@
         <v>0.575</v>
       </c>
       <c r="C14" t="n">
-        <v>0.677</v>
+        <v>0.681</v>
       </c>
       <c r="D14" t="n">
         <v>0.443</v>
@@ -1079,7 +1079,7 @@
         <v>0.556</v>
       </c>
       <c r="G14" t="n">
-        <v>0.627</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0.374</v>
@@ -1088,7 +1088,7 @@
         <v>0.579</v>
       </c>
       <c r="J14" t="n">
-        <v>0.347</v>
+        <v>0.436</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -1119,13 +1119,13 @@
         <v>0.473</v>
       </c>
       <c r="E15" t="n">
-        <v>0.615</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F15" t="n">
         <v>0.596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.681</v>
+        <v>0.756</v>
       </c>
       <c r="H15" t="n">
         <v>0.343</v>
@@ -1140,7 +1140,7 @@
         <v>0.467</v>
       </c>
       <c r="L15" t="n">
-        <v>0.463</v>
+        <v>0.424</v>
       </c>
       <c r="M15" t="n">
         <v>5.162790697674419</v>
@@ -1171,16 +1171,16 @@
         <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.624</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="n">
-        <v>0.35</v>
+        <v>0.391</v>
       </c>
       <c r="I16" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.344</v>
+        <v>0.337</v>
       </c>
       <c r="K16" t="n">
         <v>0.459</v>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.547</v>
+        <v>0.54</v>
       </c>
       <c r="C17" t="n">
         <v>0.715</v>
@@ -1211,7 +1211,7 @@
         <v>0.471</v>
       </c>
       <c r="E17" t="n">
-        <v>0.642</v>
+        <v>0.604</v>
       </c>
       <c r="F17" t="n">
         <v>0.573</v>
@@ -1232,7 +1232,7 @@
         <v>0.441</v>
       </c>
       <c r="L17" t="n">
-        <v>0.516</v>
+        <v>0.397</v>
       </c>
       <c r="M17" t="n">
         <v>5.810344827586207</v>
@@ -1257,13 +1257,13 @@
         <v>0.496</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.616</v>
       </c>
       <c r="F18" t="n">
         <v>0.596</v>
       </c>
       <c r="G18" t="n">
-        <v>0.623</v>
+        <v>0.76</v>
       </c>
       <c r="H18" t="n">
         <v>0.36</v>
@@ -1272,7 +1272,7 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.342</v>
+        <v>0.398</v>
       </c>
       <c r="K18" t="n">
         <v>0.475</v>
@@ -1297,7 +1297,7 @@
         <v>0.753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.718</v>
+        <v>0.592</v>
       </c>
       <c r="D19" t="n">
         <v>0.391</v>
@@ -1324,7 +1324,7 @@
         <v>0.497</v>
       </c>
       <c r="L19" t="n">
-        <v>0.482</v>
+        <v>0.403</v>
       </c>
       <c r="M19" t="n">
         <v>1.03125</v>
@@ -1343,13 +1343,13 @@
         <v>0.602</v>
       </c>
       <c r="C20" t="n">
-        <v>0.727</v>
+        <v>0.673</v>
       </c>
       <c r="D20" t="n">
         <v>0.473</v>
       </c>
       <c r="E20" t="n">
-        <v>0.639</v>
+        <v>0.509</v>
       </c>
       <c r="F20" t="n">
         <v>0.552</v>
@@ -1392,7 +1392,7 @@
         <v>0.724</v>
       </c>
       <c r="D21" t="n">
-        <v>0.52</v>
+        <v>0.494</v>
       </c>
       <c r="E21" t="n">
         <v>0.633</v>
@@ -1404,7 +1404,7 @@
         <v>0.8080000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.329</v>
+        <v>0.428</v>
       </c>
       <c r="I21" t="n">
         <v>0.485</v>
@@ -1416,7 +1416,7 @@
         <v>0.373</v>
       </c>
       <c r="L21" t="n">
-        <v>0.501</v>
+        <v>0.385</v>
       </c>
       <c r="M21" t="n">
         <v>7.21875</v>
@@ -1435,13 +1435,13 @@
         <v>0.571</v>
       </c>
       <c r="C22" t="n">
-        <v>0.724</v>
+        <v>0.695</v>
       </c>
       <c r="D22" t="n">
         <v>0.461</v>
       </c>
       <c r="E22" t="n">
-        <v>0.594</v>
+        <v>0.517</v>
       </c>
       <c r="F22" t="n">
         <v>0.604</v>
@@ -1462,7 +1462,7 @@
         <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>0.51</v>
+        <v>0.425</v>
       </c>
       <c r="M22" t="n">
         <v>4.907407407407407</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.638</v>
+        <v>0.584</v>
       </c>
       <c r="C23" t="n">
         <v>0.671</v>
@@ -1487,7 +1487,7 @@
         <v>0.44</v>
       </c>
       <c r="E23" t="n">
-        <v>0.588</v>
+        <v>0.546</v>
       </c>
       <c r="F23" t="n">
         <v>0.5669999999999999</v>
@@ -1496,13 +1496,13 @@
         <v>0.709</v>
       </c>
       <c r="H23" t="n">
-        <v>0.336</v>
+        <v>0.374</v>
       </c>
       <c r="I23" t="n">
         <v>0.581</v>
       </c>
       <c r="J23" t="n">
-        <v>0.281</v>
+        <v>0.383</v>
       </c>
       <c r="K23" t="n">
         <v>0.454</v>
@@ -1527,13 +1527,13 @@
         <v>0.5620000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.721</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D24" t="n">
         <v>0.451</v>
       </c>
       <c r="E24" t="n">
-        <v>0.582</v>
+        <v>0.513</v>
       </c>
       <c r="F24" t="n">
         <v>0.577</v>
@@ -1554,7 +1554,7 @@
         <v>0.453</v>
       </c>
       <c r="L24" t="n">
-        <v>0.508</v>
+        <v>0.434</v>
       </c>
       <c r="M24" t="n">
         <v>3.877551020408163</v>
@@ -1579,7 +1579,7 @@
         <v>0.478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.578</v>
+        <v>0.511</v>
       </c>
       <c r="F25" t="n">
         <v>0.501</v>
@@ -1600,7 +1600,7 @@
         <v>0.414</v>
       </c>
       <c r="L25" t="n">
-        <v>0.486</v>
+        <v>0.424</v>
       </c>
       <c r="M25" t="n">
         <v>2.442307692307693</v>
@@ -1619,13 +1619,13 @@
         <v>0.622</v>
       </c>
       <c r="C26" t="n">
-        <v>0.699</v>
+        <v>0.655</v>
       </c>
       <c r="D26" t="n">
         <v>0.452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.616</v>
+        <v>0.529</v>
       </c>
       <c r="F26" t="n">
         <v>0.5570000000000001</v>
@@ -1671,13 +1671,13 @@
         <v>0.466</v>
       </c>
       <c r="E27" t="n">
-        <v>0.578</v>
+        <v>0.527</v>
       </c>
       <c r="F27" t="n">
         <v>0.571</v>
       </c>
       <c r="G27" t="n">
-        <v>0.636</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0.352</v>
@@ -1689,7 +1689,7 @@
         <v>0.321</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.375</v>
       </c>
       <c r="L27" t="n">
         <v>0.421</v>
@@ -1711,13 +1711,13 @@
         <v>0.584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.694</v>
+        <v>0.631</v>
       </c>
       <c r="D28" t="n">
         <v>0.45</v>
       </c>
       <c r="E28" t="n">
-        <v>0.613</v>
+        <v>0.556</v>
       </c>
       <c r="F28" t="n">
         <v>0.571</v>
@@ -1726,7 +1726,7 @@
         <v>0.633</v>
       </c>
       <c r="H28" t="n">
-        <v>0.39</v>
+        <v>0.464</v>
       </c>
       <c r="I28" t="n">
         <v>0.556</v>
@@ -1769,7 +1769,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.655</v>
+        <v>0.771</v>
       </c>
       <c r="H29" t="n">
         <v>0.356</v>
@@ -1784,7 +1784,7 @@
         <v>0.471</v>
       </c>
       <c r="L29" t="n">
-        <v>0.518</v>
+        <v>0.439</v>
       </c>
       <c r="M29" t="n">
         <v>2.122448979591837</v>
@@ -1806,10 +1806,10 @@
         <v>0.671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.424</v>
+        <v>0.371</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="F30" t="n">
         <v>0.535</v>
@@ -1818,13 +1818,13 @@
         <v>0.633</v>
       </c>
       <c r="H30" t="n">
-        <v>0.327</v>
+        <v>0.391</v>
       </c>
       <c r="I30" t="n">
         <v>0.576</v>
       </c>
       <c r="J30" t="n">
-        <v>0.266</v>
+        <v>0.416</v>
       </c>
       <c r="K30" t="n">
         <v>0.463</v>
@@ -1861,7 +1861,7 @@
         <v>0.543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.573</v>
+        <v>0.763</v>
       </c>
       <c r="H31" t="n">
         <v>0.376</v>
@@ -1895,7 +1895,7 @@
         <v>0.673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.698</v>
+        <v>0.571</v>
       </c>
       <c r="D32" t="n">
         <v>0.426</v>
@@ -1916,10 +1916,10 @@
         <v>0.574</v>
       </c>
       <c r="J32" t="n">
-        <v>0.466</v>
+        <v>0.523</v>
       </c>
       <c r="K32" t="n">
-        <v>0.499</v>
+        <v>0.34</v>
       </c>
       <c r="L32" t="n">
         <v>0.505</v>
@@ -1944,10 +1944,10 @@
         <v>0.606</v>
       </c>
       <c r="D33" t="n">
-        <v>0.537</v>
+        <v>0.544</v>
       </c>
       <c r="E33" t="n">
-        <v>0.64</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F33" t="n">
         <v>0.517</v>
@@ -1956,7 +1956,7 @@
         <v>0.634</v>
       </c>
       <c r="H33" t="n">
-        <v>0.383</v>
+        <v>0.474</v>
       </c>
       <c r="I33" t="n">
         <v>0.5629999999999999</v>
@@ -1993,7 +1993,7 @@
         <v>0.494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.594</v>
+        <v>0.513</v>
       </c>
       <c r="F34" t="n">
         <v>0.542</v>
@@ -2014,7 +2014,7 @@
         <v>0.416</v>
       </c>
       <c r="L34" t="n">
-        <v>0.509</v>
+        <v>0.421</v>
       </c>
       <c r="M34" t="n">
         <v>1.641025641025641</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.724</v>
       </c>
       <c r="C35" t="n">
         <v>0.622</v>
@@ -2045,10 +2045,10 @@
         <v>0.5639999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.615</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0.374</v>
+        <v>0.454</v>
       </c>
       <c r="I35" t="n">
         <v>0.547</v>
@@ -2082,7 +2082,7 @@
         <v>0.661</v>
       </c>
       <c r="D36" t="n">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
       <c r="E36" t="n">
         <v>0.592</v>
@@ -2100,7 +2100,7 @@
         <v>0.552</v>
       </c>
       <c r="J36" t="n">
-        <v>0.246</v>
+        <v>0.422</v>
       </c>
       <c r="K36" t="n">
         <v>0.471</v>
@@ -2125,19 +2125,19 @@
         <v>0.577</v>
       </c>
       <c r="C37" t="n">
-        <v>0.702</v>
+        <v>0.624</v>
       </c>
       <c r="D37" t="n">
         <v>0.484</v>
       </c>
       <c r="E37" t="n">
-        <v>0.619</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F37" t="n">
         <v>0.553</v>
       </c>
       <c r="G37" t="n">
-        <v>0.662</v>
+        <v>0.763</v>
       </c>
       <c r="H37" t="n">
         <v>0.371</v>
@@ -2171,10 +2171,10 @@
         <v>0.65</v>
       </c>
       <c r="C38" t="n">
-        <v>0.732</v>
+        <v>0.61</v>
       </c>
       <c r="D38" t="n">
-        <v>0.48</v>
+        <v>0.529</v>
       </c>
       <c r="E38" t="n">
         <v>0.5649999999999999</v>
@@ -2183,7 +2183,7 @@
         <v>0.57</v>
       </c>
       <c r="G38" t="n">
-        <v>0.645</v>
+        <v>0.782</v>
       </c>
       <c r="H38" t="n">
         <v>0.362</v>
@@ -2229,10 +2229,10 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.627</v>
+        <v>0.704</v>
       </c>
       <c r="H39" t="n">
-        <v>0.339</v>
+        <v>0.431</v>
       </c>
       <c r="I39" t="n">
         <v>0.545</v>
@@ -2269,7 +2269,7 @@
         <v>0.436</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.511</v>
       </c>
       <c r="F40" t="n">
         <v>0.525</v>
@@ -2284,7 +2284,7 @@
         <v>0.542</v>
       </c>
       <c r="J40" t="n">
-        <v>0.255</v>
+        <v>0.349</v>
       </c>
       <c r="K40" t="n">
         <v>0.438</v>
@@ -2315,13 +2315,13 @@
         <v>0.483</v>
       </c>
       <c r="E41" t="n">
-        <v>0.603</v>
+        <v>0.542</v>
       </c>
       <c r="F41" t="n">
         <v>0.555</v>
       </c>
       <c r="G41" t="n">
-        <v>0.694</v>
+        <v>0.731</v>
       </c>
       <c r="H41" t="n">
         <v>0.335</v>
@@ -2333,7 +2333,7 @@
         <v>0.257</v>
       </c>
       <c r="K41" t="n">
-        <v>0.502</v>
+        <v>0.406</v>
       </c>
       <c r="L41" t="n">
         <v>0.397</v>
@@ -2342,7 +2342,7 @@
         <v>4.785714285714286</v>
       </c>
       <c r="N41" t="n">
-        <v>3.452380952380953</v>
+        <v>3.455269</v>
       </c>
     </row>
     <row r="42">
@@ -2361,7 +2361,7 @@
         <v>0.451</v>
       </c>
       <c r="E42" t="n">
-        <v>0.645</v>
+        <v>0.517</v>
       </c>
       <c r="F42" t="n">
         <v>0.581</v>
@@ -2401,10 +2401,10 @@
         <v>0.655</v>
       </c>
       <c r="C43" t="n">
-        <v>0.633</v>
+        <v>0.58</v>
       </c>
       <c r="D43" t="n">
-        <v>0.461</v>
+        <v>0.485</v>
       </c>
       <c r="E43" t="n">
         <v>0.539</v>
@@ -2413,7 +2413,7 @@
         <v>0.533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.709</v>
       </c>
       <c r="H43" t="n">
         <v>0.373</v>
@@ -2456,10 +2456,10 @@
         <v>0.582</v>
       </c>
       <c r="F44" t="n">
-        <v>0.535</v>
+        <v>0.569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.645</v>
+        <v>0.785</v>
       </c>
       <c r="H44" t="n">
         <v>0.367</v>
@@ -2499,19 +2499,19 @@
         <v>0.431</v>
       </c>
       <c r="E45" t="n">
-        <v>0.587</v>
+        <v>0.511</v>
       </c>
       <c r="F45" t="n">
         <v>0.634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.616</v>
+        <v>0.706</v>
       </c>
       <c r="H45" t="n">
         <v>0.372</v>
       </c>
       <c r="I45" t="n">
-        <v>0.537</v>
+        <v>0.54</v>
       </c>
       <c r="J45" t="n">
         <v>0.347</v>
@@ -2539,7 +2539,7 @@
         <v>0.628</v>
       </c>
       <c r="C46" t="n">
-        <v>0.724</v>
+        <v>0.628</v>
       </c>
       <c r="D46" t="n">
         <v>0.439</v>
@@ -2566,7 +2566,7 @@
         <v>0.44</v>
       </c>
       <c r="L46" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="M46" t="n">
         <v>2.282051282051282</v>
@@ -2591,7 +2591,7 @@
         <v>0.502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.642</v>
+        <v>0.551</v>
       </c>
       <c r="F47" t="n">
         <v>0.5580000000000001</v>
@@ -2606,7 +2606,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4</v>
+        <v>0.474</v>
       </c>
       <c r="K47" t="n">
         <v>0.483</v>
@@ -2637,7 +2637,7 @@
         <v>0.466</v>
       </c>
       <c r="E48" t="n">
-        <v>0.602</v>
+        <v>0.516</v>
       </c>
       <c r="F48" t="n">
         <v>0.525</v>
@@ -2658,7 +2658,7 @@
         <v>0.483</v>
       </c>
       <c r="L48" t="n">
-        <v>0.439</v>
+        <v>0.395</v>
       </c>
       <c r="M48" t="n">
         <v>1.125</v>
@@ -2683,7 +2683,7 @@
         <v>0.412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.632</v>
+        <v>0.533</v>
       </c>
       <c r="F49" t="n">
         <v>0.535</v>
@@ -2698,7 +2698,7 @@
         <v>0.602</v>
       </c>
       <c r="J49" t="n">
-        <v>0.501</v>
+        <v>0.533</v>
       </c>
       <c r="K49" t="n">
         <v>0.608</v>
@@ -2738,7 +2738,7 @@
         <v>0.624</v>
       </c>
       <c r="H50" t="n">
-        <v>0.37</v>
+        <v>0.464</v>
       </c>
       <c r="I50" t="n">
         <v>0.592</v>
@@ -2750,7 +2750,7 @@
         <v>0.492</v>
       </c>
       <c r="L50" t="n">
-        <v>0.518</v>
+        <v>0.451</v>
       </c>
       <c r="M50" t="n">
         <v>1.466666666666667</v>
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.522</v>
+        <v>0.584</v>
       </c>
       <c r="C51" t="n">
-        <v>0.633</v>
+        <v>0.571</v>
       </c>
       <c r="D51" t="n">
         <v>0.451</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="F51" t="n">
         <v>0.532</v>
@@ -2790,7 +2790,7 @@
         <v>0.538</v>
       </c>
       <c r="J51" t="n">
-        <v>0.235</v>
+        <v>0.342</v>
       </c>
       <c r="K51" t="n">
         <v>0.449</v>
@@ -2818,16 +2818,16 @@
         <v>0.607</v>
       </c>
       <c r="D52" t="n">
-        <v>0.412</v>
+        <v>0.485</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="F52" t="n">
         <v>0.554</v>
       </c>
       <c r="G52" t="n">
-        <v>0.589</v>
+        <v>0.661</v>
       </c>
       <c r="H52" t="n">
         <v>0.382</v>
@@ -2867,10 +2867,10 @@
         <v>0.471</v>
       </c>
       <c r="E53" t="n">
-        <v>0.643</v>
+        <v>0.518</v>
       </c>
       <c r="F53" t="n">
-        <v>0.549</v>
+        <v>0.457</v>
       </c>
       <c r="G53" t="n">
         <v>0.709</v>
@@ -2907,13 +2907,13 @@
         <v>0.556</v>
       </c>
       <c r="C54" t="n">
-        <v>0.718</v>
+        <v>0.673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456</v>
+        <v>0.505</v>
       </c>
       <c r="E54" t="n">
-        <v>0.632</v>
+        <v>0.577</v>
       </c>
       <c r="F54" t="n">
         <v>0.572</v>
@@ -2928,7 +2928,7 @@
         <v>0.579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.383</v>
+        <v>0.464</v>
       </c>
       <c r="K54" t="n">
         <v>0.453</v>
@@ -2953,13 +2953,13 @@
         <v>0.555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.702</v>
+        <v>0.657</v>
       </c>
       <c r="D55" t="n">
         <v>0.453</v>
       </c>
       <c r="E55" t="n">
-        <v>0.619</v>
+        <v>0.511</v>
       </c>
       <c r="F55" t="n">
         <v>0.492</v>
@@ -3002,7 +3002,7 @@
         <v>0.621</v>
       </c>
       <c r="D56" t="n">
-        <v>0.452</v>
+        <v>0.482</v>
       </c>
       <c r="E56" t="n">
         <v>0.547</v>
@@ -3014,13 +3014,13 @@
         <v>0.612</v>
       </c>
       <c r="H56" t="n">
-        <v>0.368</v>
+        <v>0.434</v>
       </c>
       <c r="I56" t="n">
-        <v>0.537</v>
+        <v>0.584</v>
       </c>
       <c r="J56" t="n">
-        <v>0.339</v>
+        <v>0.431</v>
       </c>
       <c r="K56" t="n">
         <v>0.478</v>
@@ -3048,16 +3048,16 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.412</v>
+        <v>0.43</v>
       </c>
       <c r="E57" t="n">
         <v>0.577</v>
       </c>
       <c r="F57" t="n">
-        <v>0.602</v>
+        <v>0.622</v>
       </c>
       <c r="G57" t="n">
-        <v>0.589</v>
+        <v>0.764</v>
       </c>
       <c r="H57" t="n">
         <v>0.367</v>
@@ -3103,16 +3103,16 @@
         <v>0.594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.624</v>
+        <v>0.735</v>
       </c>
       <c r="H58" t="n">
-        <v>0.37</v>
+        <v>0.423</v>
       </c>
       <c r="I58" t="n">
         <v>0.528</v>
       </c>
       <c r="J58" t="n">
-        <v>0.344</v>
+        <v>0.361</v>
       </c>
       <c r="K58" t="n">
         <v>0.471</v>
@@ -3137,13 +3137,13 @@
         <v>0.619</v>
       </c>
       <c r="C59" t="n">
-        <v>0.727</v>
+        <v>0.648</v>
       </c>
       <c r="D59" t="n">
         <v>0.456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.639</v>
+        <v>0.518</v>
       </c>
       <c r="F59" t="n">
         <v>0.621</v>
@@ -3183,10 +3183,10 @@
         <v>0.724</v>
       </c>
       <c r="C60" t="n">
-        <v>0.659</v>
+        <v>0.596</v>
       </c>
       <c r="D60" t="n">
-        <v>0.465</v>
+        <v>0.494</v>
       </c>
       <c r="E60" t="n">
         <v>0.5679999999999999</v>
@@ -3195,7 +3195,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>0.665</v>
+        <v>0.768</v>
       </c>
       <c r="H60" t="n">
         <v>0.342</v>
@@ -3235,13 +3235,13 @@
         <v>0.456</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.527</v>
       </c>
       <c r="F61" t="n">
         <v>0.612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.582</v>
+        <v>0.675</v>
       </c>
       <c r="H61" t="n">
         <v>0.338</v>
@@ -3253,7 +3253,7 @@
         <v>0.341</v>
       </c>
       <c r="K61" t="n">
-        <v>0.398</v>
+        <v>0.375</v>
       </c>
       <c r="L61" t="n">
         <v>0.433</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.728</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3336,13 +3336,13 @@
         <v>0.625</v>
       </c>
       <c r="H63" t="n">
-        <v>0.312</v>
+        <v>0.388</v>
       </c>
       <c r="I63" t="n">
         <v>0.5610000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>0.375</v>
+        <v>0.517</v>
       </c>
       <c r="K63" t="n">
         <v>0.477</v>
@@ -3379,7 +3379,7 @@
         <v>0.585</v>
       </c>
       <c r="G64" t="n">
-        <v>0.719</v>
+        <v>0.794</v>
       </c>
       <c r="H64" t="n">
         <v>0.35</v>
@@ -3394,7 +3394,7 @@
         <v>0.39</v>
       </c>
       <c r="L64" t="n">
-        <v>0.482</v>
+        <v>0.406</v>
       </c>
       <c r="M64" t="n">
         <v>4.8</v>
@@ -3428,13 +3428,13 @@
         <v>0.74</v>
       </c>
       <c r="H65" t="n">
-        <v>0.321</v>
+        <v>0.39</v>
       </c>
       <c r="I65" t="n">
         <v>0.5590000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>0.254</v>
+        <v>0.379</v>
       </c>
       <c r="K65" t="n">
         <v>0.45</v>
@@ -3474,10 +3474,10 @@
         <v>0.653</v>
       </c>
       <c r="H66" t="n">
-        <v>0.346</v>
+        <v>0.441</v>
       </c>
       <c r="I66" t="n">
-        <v>0.546</v>
+        <v>0.607</v>
       </c>
       <c r="J66" t="n">
         <v>0.305</v>
@@ -3486,7 +3486,7 @@
         <v>0.432</v>
       </c>
       <c r="L66" t="n">
-        <v>0.484</v>
+        <v>0.42</v>
       </c>
       <c r="M66" t="n">
         <v>3.675</v>
@@ -3517,10 +3517,10 @@
         <v>0.593</v>
       </c>
       <c r="G67" t="n">
-        <v>0.618</v>
+        <v>0.72</v>
       </c>
       <c r="H67" t="n">
-        <v>0.378</v>
+        <v>0.425</v>
       </c>
       <c r="I67" t="n">
         <v>0.547</v>
@@ -3563,10 +3563,10 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.697</v>
       </c>
       <c r="H68" t="n">
-        <v>0.362</v>
+        <v>0.412</v>
       </c>
       <c r="I68" t="n">
         <v>0.518</v>
@@ -3603,13 +3603,13 @@
         <v>0.463</v>
       </c>
       <c r="E69" t="n">
-        <v>0.52</v>
+        <v>0.553</v>
       </c>
       <c r="F69" t="n">
         <v>0.518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.616</v>
+        <v>0.785</v>
       </c>
       <c r="H69" t="n">
         <v>0.371</v>
@@ -3618,7 +3618,7 @@
         <v>0.529</v>
       </c>
       <c r="J69" t="n">
-        <v>0.259</v>
+        <v>0.343</v>
       </c>
       <c r="K69" t="n">
         <v>0.485</v>
@@ -3646,7 +3646,7 @@
         <v>0.62</v>
       </c>
       <c r="D70" t="n">
-        <v>0.494</v>
+        <v>0.478</v>
       </c>
       <c r="E70" t="n">
         <v>0.5659999999999999</v>
@@ -3655,7 +3655,7 @@
         <v>0.507</v>
       </c>
       <c r="G70" t="n">
-        <v>0.639</v>
+        <v>0.746</v>
       </c>
       <c r="H70" t="n">
         <v>0.369</v>
@@ -3667,10 +3667,10 @@
         <v>0.34</v>
       </c>
       <c r="K70" t="n">
-        <v>0.476</v>
+        <v>0.551</v>
       </c>
       <c r="L70" t="n">
-        <v>0.482</v>
+        <v>0.437</v>
       </c>
       <c r="M70" t="n">
         <v>2.88</v>
@@ -3689,7 +3689,7 @@
         <v>0.646</v>
       </c>
       <c r="C71" t="n">
-        <v>0.724</v>
+        <v>0.679</v>
       </c>
       <c r="D71" t="n">
         <v>0.446</v>
@@ -3704,19 +3704,19 @@
         <v>0.702</v>
       </c>
       <c r="H71" t="n">
-        <v>0.331</v>
+        <v>0.443</v>
       </c>
       <c r="I71" t="n">
         <v>0.534</v>
       </c>
       <c r="J71" t="n">
-        <v>0.278</v>
+        <v>0.474</v>
       </c>
       <c r="K71" t="n">
         <v>0.383</v>
       </c>
       <c r="L71" t="n">
-        <v>0.51</v>
+        <v>0.407</v>
       </c>
       <c r="M71" t="n">
         <v>4.325</v>
@@ -3747,7 +3747,7 @@
         <v>0.576</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.694</v>
       </c>
       <c r="H72" t="n">
         <v>0.388</v>
@@ -3759,7 +3759,7 @@
         <v>0.4</v>
       </c>
       <c r="K72" t="n">
-        <v>0.538</v>
+        <v>0.502</v>
       </c>
       <c r="L72" t="n">
         <v>0.454</v>
@@ -3781,7 +3781,7 @@
         <v>0.576</v>
       </c>
       <c r="C73" t="n">
-        <v>0.732</v>
+        <v>0.636</v>
       </c>
       <c r="D73" t="n">
         <v>0.436</v>
@@ -3793,7 +3793,7 @@
         <v>0.546</v>
       </c>
       <c r="G73" t="n">
-        <v>0.616</v>
+        <v>0.709</v>
       </c>
       <c r="H73" t="n">
         <v>0.369</v>
@@ -3836,13 +3836,13 @@
         <v>0.526</v>
       </c>
       <c r="F74" t="n">
-        <v>0.455</v>
+        <v>0.488</v>
       </c>
       <c r="G74" t="n">
-        <v>0.552</v>
+        <v>0.657</v>
       </c>
       <c r="H74" t="n">
-        <v>0.32</v>
+        <v>0.408</v>
       </c>
       <c r="I74" t="n">
         <v>0.583</v>
@@ -3851,7 +3851,7 @@
         <v>0.448</v>
       </c>
       <c r="K74" t="n">
-        <v>0.46</v>
+        <v>0.468</v>
       </c>
       <c r="L74" t="n">
         <v>0.472</v>
@@ -3885,10 +3885,10 @@
         <v>0.521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.597</v>
+        <v>0.655</v>
       </c>
       <c r="H75" t="n">
-        <v>0.355</v>
+        <v>0.467</v>
       </c>
       <c r="I75" t="n">
         <v>0.5580000000000001</v>
@@ -3925,7 +3925,7 @@
         <v>0.44</v>
       </c>
       <c r="E76" t="n">
-        <v>0.602</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F76" t="n">
         <v>0.576</v>
@@ -3934,13 +3934,13 @@
         <v>0.627</v>
       </c>
       <c r="H76" t="n">
-        <v>0.375</v>
+        <v>0.43</v>
       </c>
       <c r="I76" t="n">
         <v>0.548</v>
       </c>
       <c r="J76" t="n">
-        <v>0.367</v>
+        <v>0.451</v>
       </c>
       <c r="K76" t="n">
         <v>0.442</v>
@@ -3977,16 +3977,16 @@
         <v>0.533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.66</v>
+        <v>0.669</v>
       </c>
       <c r="H77" t="n">
-        <v>0.343</v>
+        <v>0.43</v>
       </c>
       <c r="I77" t="n">
         <v>0.5639999999999999</v>
       </c>
       <c r="J77" t="n">
-        <v>0.353</v>
+        <v>0.451</v>
       </c>
       <c r="K77" t="n">
         <v>0.525</v>
@@ -4011,19 +4011,19 @@
         <v>0.591</v>
       </c>
       <c r="C78" t="n">
-        <v>0.731</v>
+        <v>0.644</v>
       </c>
       <c r="D78" t="n">
         <v>0.47</v>
       </c>
       <c r="E78" t="n">
-        <v>0.642</v>
+        <v>0.573</v>
       </c>
       <c r="F78" t="n">
         <v>0.554</v>
       </c>
       <c r="G78" t="n">
-        <v>0.675</v>
+        <v>0.794</v>
       </c>
       <c r="H78" t="n">
         <v>0.38</v>
@@ -4060,16 +4060,16 @@
         <v>0.607</v>
       </c>
       <c r="D79" t="n">
-        <v>0.422</v>
+        <v>0.497</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.541</v>
       </c>
       <c r="F79" t="n">
         <v>0.522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.604</v>
+        <v>0.729</v>
       </c>
       <c r="H79" t="n">
         <v>0.37</v>
@@ -4109,16 +4109,16 @@
         <v>0.463</v>
       </c>
       <c r="E80" t="n">
-        <v>0.612</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F80" t="n">
         <v>0.5</v>
       </c>
       <c r="G80" t="n">
-        <v>0.658</v>
+        <v>0.729</v>
       </c>
       <c r="H80" t="n">
-        <v>0.343</v>
+        <v>0.43</v>
       </c>
       <c r="I80" t="n">
         <v>0.514</v>
@@ -4161,7 +4161,7 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.754</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
@@ -4195,13 +4195,13 @@
         <v>0.667</v>
       </c>
       <c r="C82" t="n">
-        <v>0.675</v>
+        <v>0.65</v>
       </c>
       <c r="D82" t="n">
         <v>0.518</v>
       </c>
       <c r="E82" t="n">
-        <v>0.642</v>
+        <v>0.623</v>
       </c>
       <c r="F82" t="n">
         <v>0.62</v>
@@ -4210,7 +4210,7 @@
         <v>0.772</v>
       </c>
       <c r="H82" t="n">
-        <v>0.34</v>
+        <v>0.392</v>
       </c>
       <c r="I82" t="n">
         <v>0.528</v>
@@ -4222,7 +4222,7 @@
         <v>0.392</v>
       </c>
       <c r="L82" t="n">
-        <v>0.516</v>
+        <v>0.41</v>
       </c>
       <c r="M82" t="n">
         <v>4.733333333333333</v>
@@ -4253,22 +4253,22 @@
         <v>0.483</v>
       </c>
       <c r="G83" t="n">
-        <v>0.611</v>
+        <v>0.694</v>
       </c>
       <c r="H83" t="n">
         <v>0.372</v>
       </c>
       <c r="I83" t="n">
-        <v>0.523</v>
+        <v>0.58</v>
       </c>
       <c r="J83" t="n">
-        <v>0.319</v>
+        <v>0.418</v>
       </c>
       <c r="K83" t="n">
         <v>0.395</v>
       </c>
       <c r="L83" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="M83" t="n">
         <v>2.4375</v>
@@ -4299,7 +4299,7 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0.307</v>
@@ -4333,7 +4333,7 @@
         <v>0.57</v>
       </c>
       <c r="C85" t="n">
-        <v>0.719</v>
+        <v>0.601</v>
       </c>
       <c r="D85" t="n">
         <v>0.441</v>
@@ -4351,10 +4351,10 @@
         <v>0.405</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="J85" t="n">
-        <v>0.394</v>
+        <v>0.505</v>
       </c>
       <c r="K85" t="n">
         <v>0.463</v>
@@ -4385,13 +4385,13 @@
         <v>0.431</v>
       </c>
       <c r="E86" t="n">
-        <v>0.575</v>
+        <v>0.588</v>
       </c>
       <c r="F86" t="n">
-        <v>0.535</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>0.645</v>
+        <v>0.675</v>
       </c>
       <c r="H86" t="n">
         <v>0.314</v>
@@ -4400,7 +4400,7 @@
         <v>0.502</v>
       </c>
       <c r="J86" t="n">
-        <v>0.243</v>
+        <v>0.407</v>
       </c>
       <c r="K86" t="n">
         <v>0.411</v>
@@ -4440,19 +4440,19 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0.354</v>
+        <v>0.41</v>
       </c>
       <c r="I87" t="n">
         <v>0.538</v>
       </c>
       <c r="J87" t="n">
-        <v>0.323</v>
+        <v>0.414</v>
       </c>
       <c r="K87" t="n">
         <v>0.459</v>
       </c>
       <c r="L87" t="n">
-        <v>0.47</v>
+        <v>0.422</v>
       </c>
       <c r="M87" t="n">
         <v>0.5600000000000001</v>
@@ -4483,10 +4483,10 @@
         <v>0.573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.632</v>
+        <v>0.72</v>
       </c>
       <c r="H88" t="n">
-        <v>0.341</v>
+        <v>0.425</v>
       </c>
       <c r="I88" t="n">
         <v>0.502</v>
@@ -4529,10 +4529,10 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.634</v>
+        <v>0.729</v>
       </c>
       <c r="H89" t="n">
-        <v>0.373</v>
+        <v>0.43</v>
       </c>
       <c r="I89" t="n">
         <v>0.482</v>
@@ -4575,16 +4575,16 @@
         <v>0.476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.573</v>
+        <v>0.72</v>
       </c>
       <c r="H90" t="n">
-        <v>0.382</v>
+        <v>0.425</v>
       </c>
       <c r="I90" t="n">
         <v>0.507</v>
       </c>
       <c r="J90" t="n">
-        <v>0.292</v>
+        <v>0.319</v>
       </c>
       <c r="K90" t="n">
         <v>0.468</v>
@@ -4621,13 +4621,13 @@
         <v>0.54</v>
       </c>
       <c r="G91" t="n">
-        <v>0.626</v>
+        <v>0.785</v>
       </c>
       <c r="H91" t="n">
-        <v>0.324</v>
+        <v>0.342</v>
       </c>
       <c r="I91" t="n">
-        <v>0.498</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J91" t="n">
         <v>0.33</v>
@@ -4661,7 +4661,7 @@
         <v>0.498</v>
       </c>
       <c r="E92" t="n">
-        <v>0.634</v>
+        <v>0.546</v>
       </c>
       <c r="F92" t="n">
         <v>0.518</v>
@@ -4682,7 +4682,7 @@
         <v>0.449</v>
       </c>
       <c r="L92" t="n">
-        <v>0.475</v>
+        <v>0.385</v>
       </c>
       <c r="M92" t="n">
         <v>6.5</v>
@@ -4704,7 +4704,7 @@
         <v>0.644</v>
       </c>
       <c r="D93" t="n">
-        <v>0.365</v>
+        <v>0.479</v>
       </c>
       <c r="E93" t="n">
         <v>0.54</v>
@@ -4713,7 +4713,7 @@
         <v>0.524</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.698</v>
       </c>
       <c r="H93" t="n">
         <v>0.392</v>
@@ -4747,13 +4747,13 @@
         <v>0.607</v>
       </c>
       <c r="C94" t="n">
-        <v>0.702</v>
+        <v>0.633</v>
       </c>
       <c r="D94" t="n">
         <v>0.46</v>
       </c>
       <c r="E94" t="n">
-        <v>0.619</v>
+        <v>0.511</v>
       </c>
       <c r="F94" t="n">
         <v>0.533</v>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.676</v>
+        <v>0.725</v>
       </c>
       <c r="C95" t="n">
         <v>0.578</v>
@@ -4799,13 +4799,13 @@
         <v>0.483</v>
       </c>
       <c r="E95" t="n">
-        <v>0.583</v>
+        <v>0.547</v>
       </c>
       <c r="F95" t="n">
         <v>0.535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.622</v>
+        <v>0.772</v>
       </c>
       <c r="H95" t="n">
         <v>0.342</v>
@@ -4854,19 +4854,19 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="I96" t="n">
         <v>0.532</v>
       </c>
       <c r="J96" t="n">
-        <v>0.301</v>
+        <v>0.414</v>
       </c>
       <c r="K96" t="n">
         <v>0.46</v>
       </c>
       <c r="L96" t="n">
-        <v>0.509</v>
+        <v>0.413</v>
       </c>
       <c r="M96" t="n">
         <v>2.451612903225806</v>
@@ -4897,10 +4897,10 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="H97" t="n">
-        <v>0.315</v>
+        <v>0.425</v>
       </c>
       <c r="I97" t="n">
         <v>0.5659999999999999</v>
@@ -4931,7 +4931,7 @@
         <v>0.609</v>
       </c>
       <c r="C98" t="n">
-        <v>0.725</v>
+        <v>0.615</v>
       </c>
       <c r="D98" t="n">
         <v>0.44</v>
@@ -4946,13 +4946,13 @@
         <v>0.608</v>
       </c>
       <c r="H98" t="n">
-        <v>0.362</v>
+        <v>0.43</v>
       </c>
       <c r="I98" t="n">
         <v>0.523</v>
       </c>
       <c r="J98" t="n">
-        <v>0.337</v>
+        <v>0.451</v>
       </c>
       <c r="K98" t="n">
         <v>0.527</v>
@@ -4989,7 +4989,7 @@
         <v>0.528</v>
       </c>
       <c r="G99" t="n">
-        <v>0.632</v>
+        <v>0.772</v>
       </c>
       <c r="H99" t="n">
         <v>0.343</v>
@@ -5004,7 +5004,7 @@
         <v>0.422</v>
       </c>
       <c r="L99" t="n">
-        <v>0.442</v>
+        <v>0.414</v>
       </c>
       <c r="M99" t="n">
         <v>2.441176470588236</v>
@@ -5035,7 +5035,7 @@
         <v>0.438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.61</v>
+        <v>0.772</v>
       </c>
       <c r="H100" t="n">
         <v>0.359</v>
@@ -5075,13 +5075,13 @@
         <v>0.456</v>
       </c>
       <c r="E101" t="n">
-        <v>0.617</v>
+        <v>0.536</v>
       </c>
       <c r="F101" t="n">
         <v>0.583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.71</v>
+        <v>0.773</v>
       </c>
       <c r="H101" t="n">
         <v>0.314</v>
